--- a/GADM_district.xlsx
+++ b/GADM_district.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Project_Code\ReferenceLayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807A4F7E-A9BA-445C-9AF6-10C07EC5BC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753540C0-6DD5-4890-9061-699F8E505A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="2174">
   <si>
     <t>GID_2</t>
   </si>
@@ -4486,9 +4486,6 @@
   </si>
   <si>
     <t>Tiền Giang</t>
-  </si>
-  <si>
-    <t>Tràvinh</t>
   </si>
   <si>
     <t>Vĩnh Phúc</t>
@@ -6928,8 +6925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="H299" sqref="H299"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H723" sqref="H723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6969,7 +6966,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6998,7 +6995,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7027,7 +7024,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -7056,7 +7053,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7085,7 +7082,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7114,7 +7111,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -7143,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -7172,7 +7169,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -7201,7 +7198,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7230,7 +7227,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -7259,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -7288,7 +7285,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -7317,7 +7314,7 @@
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -7346,7 +7343,7 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -7375,7 +7372,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -7404,7 +7401,7 @@
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -7412,7 +7409,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C17" t="s">
         <v>1392</v>
@@ -7433,7 +7430,7 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -7462,15 +7459,15 @@
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B19" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C19" t="s">
         <v>1392</v>
@@ -7491,7 +7488,7 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -7520,7 +7517,7 @@
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -7549,7 +7546,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7578,7 +7575,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7607,7 +7604,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -7636,7 +7633,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -7665,7 +7662,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -7694,7 +7691,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -7723,7 +7720,7 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -7752,7 +7749,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -7781,7 +7778,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -7810,7 +7807,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -7839,7 +7836,7 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -7868,7 +7865,7 @@
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7897,7 +7894,7 @@
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7926,7 +7923,7 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -7955,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -7984,7 +7981,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -8013,7 +8010,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -8042,7 +8039,7 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -8071,7 +8068,7 @@
         <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -8100,7 +8097,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -8129,7 +8126,7 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -8158,7 +8155,7 @@
         <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -8187,7 +8184,7 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8216,7 +8213,7 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -8245,7 +8242,7 @@
         <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -8274,7 +8271,7 @@
         <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -8303,7 +8300,7 @@
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -8332,7 +8329,7 @@
         <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -8361,7 +8358,7 @@
         <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -8390,7 +8387,7 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -8419,7 +8416,7 @@
         <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -8448,7 +8445,7 @@
         <v>8</v>
       </c>
       <c r="I52" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8477,7 +8474,7 @@
         <v>8</v>
       </c>
       <c r="I53" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -8506,7 +8503,7 @@
         <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -8535,7 +8532,7 @@
         <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -8564,7 +8561,7 @@
         <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -8593,7 +8590,7 @@
         <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -8622,7 +8619,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -8651,7 +8648,7 @@
         <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8680,7 +8677,7 @@
         <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -8709,7 +8706,7 @@
         <v>9</v>
       </c>
       <c r="I61" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -8738,7 +8735,7 @@
         <v>9</v>
       </c>
       <c r="I62" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -8767,7 +8764,7 @@
         <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -8796,7 +8793,7 @@
         <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -8825,7 +8822,7 @@
         <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -8854,7 +8851,7 @@
         <v>11</v>
       </c>
       <c r="I66" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -8883,7 +8880,7 @@
         <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -8912,7 +8909,7 @@
         <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -8941,7 +8938,7 @@
         <v>11</v>
       </c>
       <c r="I69" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -8970,7 +8967,7 @@
         <v>11</v>
       </c>
       <c r="I70" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -8999,7 +8996,7 @@
         <v>11</v>
       </c>
       <c r="I71" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -9028,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="I72" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -9057,7 +9054,7 @@
         <v>11</v>
       </c>
       <c r="I73" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -9086,7 +9083,7 @@
         <v>61</v>
       </c>
       <c r="I74" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -9115,7 +9112,7 @@
         <v>61</v>
       </c>
       <c r="I75" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -9144,7 +9141,7 @@
         <v>61</v>
       </c>
       <c r="I76" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9173,7 +9170,7 @@
         <v>61</v>
       </c>
       <c r="I77" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -9181,7 +9178,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C78" t="s">
         <v>1399</v>
@@ -9202,7 +9199,7 @@
         <v>61</v>
       </c>
       <c r="I78" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -9231,7 +9228,7 @@
         <v>61</v>
       </c>
       <c r="I79" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -9260,7 +9257,7 @@
         <v>61</v>
       </c>
       <c r="I80" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -9289,7 +9286,7 @@
         <v>61</v>
       </c>
       <c r="I81" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -9318,7 +9315,7 @@
         <v>61</v>
       </c>
       <c r="I82" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -9347,7 +9344,7 @@
         <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -9376,7 +9373,7 @@
         <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -9405,7 +9402,7 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -9434,7 +9431,7 @@
         <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -9463,7 +9460,7 @@
         <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -9492,7 +9489,7 @@
         <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -9521,7 +9518,7 @@
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -9550,7 +9547,7 @@
         <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -9579,7 +9576,7 @@
         <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -9608,7 +9605,7 @@
         <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -9637,7 +9634,7 @@
         <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -9666,7 +9663,7 @@
         <v>13</v>
       </c>
       <c r="I94" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -9695,7 +9692,7 @@
         <v>13</v>
       </c>
       <c r="I95" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -9724,7 +9721,7 @@
         <v>13</v>
       </c>
       <c r="I96" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -9753,7 +9750,7 @@
         <v>13</v>
       </c>
       <c r="I97" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -9782,7 +9779,7 @@
         <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -9811,7 +9808,7 @@
         <v>13</v>
       </c>
       <c r="I99" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -9840,7 +9837,7 @@
         <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -9869,7 +9866,7 @@
         <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -9898,7 +9895,7 @@
         <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -9927,7 +9924,7 @@
         <v>13</v>
       </c>
       <c r="I103" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -9956,7 +9953,7 @@
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -9985,7 +9982,7 @@
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -10014,7 +10011,7 @@
         <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -10043,7 +10040,7 @@
         <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -10072,7 +10069,7 @@
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -10101,7 +10098,7 @@
         <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -10130,7 +10127,7 @@
         <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -10159,7 +10156,7 @@
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -10188,7 +10185,7 @@
         <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -10217,7 +10214,7 @@
         <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -10246,7 +10243,7 @@
         <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -10275,7 +10272,7 @@
         <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -10304,7 +10301,7 @@
         <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -10333,7 +10330,7 @@
         <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -10362,7 +10359,7 @@
         <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -10391,7 +10388,7 @@
         <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -10420,7 +10417,7 @@
         <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -10449,7 +10446,7 @@
         <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -10478,7 +10475,7 @@
         <v>16</v>
       </c>
       <c r="I122" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -10507,7 +10504,7 @@
         <v>16</v>
       </c>
       <c r="I123" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -10536,7 +10533,7 @@
         <v>16</v>
       </c>
       <c r="I124" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -10565,7 +10562,7 @@
         <v>16</v>
       </c>
       <c r="I125" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -10594,7 +10591,7 @@
         <v>16</v>
       </c>
       <c r="I126" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -10623,7 +10620,7 @@
         <v>16</v>
       </c>
       <c r="I127" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -10652,7 +10649,7 @@
         <v>16</v>
       </c>
       <c r="I128" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -10681,7 +10678,7 @@
         <v>16</v>
       </c>
       <c r="I129" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -10689,7 +10686,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C130" t="s">
         <v>1404</v>
@@ -10710,7 +10707,7 @@
         <v>16</v>
       </c>
       <c r="I130" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -10739,7 +10736,7 @@
         <v>16</v>
       </c>
       <c r="I131" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -10768,7 +10765,7 @@
         <v>16</v>
       </c>
       <c r="I132" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -10797,7 +10794,7 @@
         <v>16</v>
       </c>
       <c r="I133" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -10826,7 +10823,7 @@
         <v>16</v>
       </c>
       <c r="I134" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -10855,7 +10852,7 @@
         <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -10884,7 +10881,7 @@
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -10913,7 +10910,7 @@
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -10942,7 +10939,7 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -10971,7 +10968,7 @@
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -11000,7 +10997,7 @@
         <v>17</v>
       </c>
       <c r="I140" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -11029,7 +11026,7 @@
         <v>17</v>
       </c>
       <c r="I141" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -11058,7 +11055,7 @@
         <v>18</v>
       </c>
       <c r="I142" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -11087,7 +11084,7 @@
         <v>18</v>
       </c>
       <c r="I143" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -11116,7 +11113,7 @@
         <v>18</v>
       </c>
       <c r="I144" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -11124,7 +11121,7 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C145" t="s">
         <v>1406</v>
@@ -11145,7 +11142,7 @@
         <v>18</v>
       </c>
       <c r="I145" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -11174,7 +11171,7 @@
         <v>18</v>
       </c>
       <c r="I146" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -11203,7 +11200,7 @@
         <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -11232,7 +11229,7 @@
         <v>18</v>
       </c>
       <c r="I148" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -11240,7 +11237,7 @@
         <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C149" t="s">
         <v>1406</v>
@@ -11261,7 +11258,7 @@
         <v>18</v>
       </c>
       <c r="I149" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -11290,7 +11287,7 @@
         <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -11319,7 +11316,7 @@
         <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -11348,7 +11345,7 @@
         <v>18</v>
       </c>
       <c r="I152" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -11377,7 +11374,7 @@
         <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -11406,7 +11403,7 @@
         <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -11435,7 +11432,7 @@
         <v>18</v>
       </c>
       <c r="I155" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -11493,7 +11490,7 @@
         <v>62</v>
       </c>
       <c r="I157" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -11522,7 +11519,7 @@
         <v>62</v>
       </c>
       <c r="I158" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -11551,7 +11548,7 @@
         <v>62</v>
       </c>
       <c r="I159" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -11580,7 +11577,7 @@
         <v>62</v>
       </c>
       <c r="I160" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -11609,7 +11606,7 @@
         <v>62</v>
       </c>
       <c r="I161" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -11638,7 +11635,7 @@
         <v>62</v>
       </c>
       <c r="I162" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -11667,7 +11664,7 @@
         <v>62</v>
       </c>
       <c r="I163" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -11696,7 +11693,7 @@
         <v>62</v>
       </c>
       <c r="I164" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -11725,7 +11722,7 @@
         <v>19</v>
       </c>
       <c r="I165" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -11754,7 +11751,7 @@
         <v>19</v>
       </c>
       <c r="I166" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -11783,7 +11780,7 @@
         <v>19</v>
       </c>
       <c r="I167" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -11812,7 +11809,7 @@
         <v>19</v>
       </c>
       <c r="I168" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -11841,7 +11838,7 @@
         <v>19</v>
       </c>
       <c r="I169" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -11870,7 +11867,7 @@
         <v>19</v>
       </c>
       <c r="I170" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -11899,7 +11896,7 @@
         <v>19</v>
       </c>
       <c r="I171" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -11957,7 +11954,7 @@
         <v>19</v>
       </c>
       <c r="I173" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -11986,7 +11983,7 @@
         <v>19</v>
       </c>
       <c r="I174" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -12015,7 +12012,7 @@
         <v>20</v>
       </c>
       <c r="I175" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -12044,7 +12041,7 @@
         <v>20</v>
       </c>
       <c r="I176" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -12073,7 +12070,7 @@
         <v>20</v>
       </c>
       <c r="I177" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -12102,7 +12099,7 @@
         <v>20</v>
       </c>
       <c r="I178" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -12131,7 +12128,7 @@
         <v>20</v>
       </c>
       <c r="I179" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -12160,7 +12157,7 @@
         <v>20</v>
       </c>
       <c r="I180" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -12189,7 +12186,7 @@
         <v>20</v>
       </c>
       <c r="I181" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -12218,7 +12215,7 @@
         <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -12247,7 +12244,7 @@
         <v>20</v>
       </c>
       <c r="I183" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -12276,7 +12273,7 @@
         <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -12305,7 +12302,7 @@
         <v>20</v>
       </c>
       <c r="I185" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -12334,7 +12331,7 @@
         <v>63</v>
       </c>
       <c r="I186" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -12342,7 +12339,7 @@
         <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C187" t="s">
         <v>1410</v>
@@ -12363,7 +12360,7 @@
         <v>63</v>
       </c>
       <c r="I187" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -12392,7 +12389,7 @@
         <v>63</v>
       </c>
       <c r="I188" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -12421,7 +12418,7 @@
         <v>63</v>
       </c>
       <c r="I189" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -12429,7 +12426,7 @@
         <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C190" t="s">
         <v>1410</v>
@@ -12450,7 +12447,7 @@
         <v>63</v>
       </c>
       <c r="I190" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -12479,7 +12476,7 @@
         <v>63</v>
       </c>
       <c r="I191" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -12508,7 +12505,7 @@
         <v>63</v>
       </c>
       <c r="I192" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -12537,7 +12534,7 @@
         <v>63</v>
       </c>
       <c r="I193" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -12566,7 +12563,7 @@
         <v>63</v>
       </c>
       <c r="I194" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -12595,7 +12592,7 @@
         <v>63</v>
       </c>
       <c r="I195" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -12624,7 +12621,7 @@
         <v>63</v>
       </c>
       <c r="I196" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -12653,7 +12650,7 @@
         <v>63</v>
       </c>
       <c r="I197" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -12682,7 +12679,7 @@
         <v>21</v>
       </c>
       <c r="I198" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -12711,7 +12708,7 @@
         <v>21</v>
       </c>
       <c r="I199" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -12740,7 +12737,7 @@
         <v>21</v>
       </c>
       <c r="I200" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -12769,7 +12766,7 @@
         <v>21</v>
       </c>
       <c r="I201" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -12798,7 +12795,7 @@
         <v>21</v>
       </c>
       <c r="I202" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -12827,7 +12824,7 @@
         <v>21</v>
       </c>
       <c r="I203" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -12856,7 +12853,7 @@
         <v>21</v>
       </c>
       <c r="I204" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -12885,7 +12882,7 @@
         <v>21</v>
       </c>
       <c r="I205" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -12914,7 +12911,7 @@
         <v>21</v>
       </c>
       <c r="I206" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -12943,7 +12940,7 @@
         <v>21</v>
       </c>
       <c r="I207" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -12972,7 +12969,7 @@
         <v>21</v>
       </c>
       <c r="I208" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -13001,7 +12998,7 @@
         <v>21</v>
       </c>
       <c r="I209" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -13030,7 +13027,7 @@
         <v>21</v>
       </c>
       <c r="I210" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -13059,7 +13056,7 @@
         <v>21</v>
       </c>
       <c r="I211" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -13088,7 +13085,7 @@
         <v>21</v>
       </c>
       <c r="I212" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -13117,7 +13114,7 @@
         <v>21</v>
       </c>
       <c r="I213" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -13146,7 +13143,7 @@
         <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -13175,7 +13172,7 @@
         <v>22</v>
       </c>
       <c r="I215" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -13204,7 +13201,7 @@
         <v>22</v>
       </c>
       <c r="I216" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -13233,7 +13230,7 @@
         <v>22</v>
       </c>
       <c r="I217" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -13262,7 +13259,7 @@
         <v>22</v>
       </c>
       <c r="I218" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -13291,7 +13288,7 @@
         <v>22</v>
       </c>
       <c r="I219" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -13320,7 +13317,7 @@
         <v>22</v>
       </c>
       <c r="I220" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -13349,7 +13346,7 @@
         <v>22</v>
       </c>
       <c r="I221" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -13378,7 +13375,7 @@
         <v>22</v>
       </c>
       <c r="I222" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -13407,7 +13404,7 @@
         <v>22</v>
       </c>
       <c r="I223" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -13436,7 +13433,7 @@
         <v>22</v>
       </c>
       <c r="I224" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -13465,7 +13462,7 @@
         <v>22</v>
       </c>
       <c r="I225" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -13494,7 +13491,7 @@
         <v>23</v>
       </c>
       <c r="I226" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -13523,7 +13520,7 @@
         <v>23</v>
       </c>
       <c r="I227" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -13552,7 +13549,7 @@
         <v>23</v>
       </c>
       <c r="I228" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -13581,7 +13578,7 @@
         <v>23</v>
       </c>
       <c r="I229" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -13610,7 +13607,7 @@
         <v>23</v>
       </c>
       <c r="I230" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -13639,7 +13636,7 @@
         <v>23</v>
       </c>
       <c r="I231" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -13668,7 +13665,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -13697,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -13726,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -13755,7 +13752,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -13784,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -13813,7 +13810,7 @@
         <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -13842,7 +13839,7 @@
         <v>2</v>
       </c>
       <c r="I238" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -13871,7 +13868,7 @@
         <v>2</v>
       </c>
       <c r="I239" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -13900,7 +13897,7 @@
         <v>2</v>
       </c>
       <c r="I240" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -13929,7 +13926,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -13958,7 +13955,7 @@
         <v>2</v>
       </c>
       <c r="I242" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -13987,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -14016,7 +14013,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -14045,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="I245" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -14074,7 +14071,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -14103,7 +14100,7 @@
         <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -14132,7 +14129,7 @@
         <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -14161,7 +14158,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -14190,7 +14187,7 @@
         <v>2</v>
       </c>
       <c r="I250" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -14219,7 +14216,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -14248,7 +14245,7 @@
         <v>2</v>
       </c>
       <c r="I252" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -14277,7 +14274,7 @@
         <v>2</v>
       </c>
       <c r="I253" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -14306,7 +14303,7 @@
         <v>2</v>
       </c>
       <c r="I254" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -14335,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -14364,7 +14361,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -14393,7 +14390,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -14422,7 +14419,7 @@
         <v>2</v>
       </c>
       <c r="I258" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -14451,7 +14448,7 @@
         <v>2</v>
       </c>
       <c r="I259" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -14480,7 +14477,7 @@
         <v>2</v>
       </c>
       <c r="I260" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -14509,7 +14506,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -14538,7 +14535,7 @@
         <v>25</v>
       </c>
       <c r="I262" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -14567,7 +14564,7 @@
         <v>25</v>
       </c>
       <c r="I263" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -14596,7 +14593,7 @@
         <v>25</v>
       </c>
       <c r="I264" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -14625,7 +14622,7 @@
         <v>25</v>
       </c>
       <c r="I265" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -14654,7 +14651,7 @@
         <v>25</v>
       </c>
       <c r="I266" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -14683,7 +14680,7 @@
         <v>25</v>
       </c>
       <c r="I267" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -14712,7 +14709,7 @@
         <v>25</v>
       </c>
       <c r="I268" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -14741,7 +14738,7 @@
         <v>25</v>
       </c>
       <c r="I269" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -14749,7 +14746,7 @@
         <v>275</v>
       </c>
       <c r="B270" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C270" t="s">
         <v>1415</v>
@@ -14770,7 +14767,7 @@
         <v>25</v>
       </c>
       <c r="I270" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -14799,7 +14796,7 @@
         <v>25</v>
       </c>
       <c r="I271" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -14828,7 +14825,7 @@
         <v>25</v>
       </c>
       <c r="I272" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -14857,7 +14854,7 @@
         <v>25</v>
       </c>
       <c r="I273" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -14886,7 +14883,7 @@
         <v>25</v>
       </c>
       <c r="I274" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -14915,7 +14912,7 @@
         <v>26</v>
       </c>
       <c r="I275" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -14944,7 +14941,7 @@
         <v>26</v>
       </c>
       <c r="I276" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -14973,7 +14970,7 @@
         <v>26</v>
       </c>
       <c r="I277" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -15002,7 +14999,7 @@
         <v>26</v>
       </c>
       <c r="I278" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -15031,7 +15028,7 @@
         <v>26</v>
       </c>
       <c r="I279" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -15060,7 +15057,7 @@
         <v>26</v>
       </c>
       <c r="I280" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -15089,7 +15086,7 @@
         <v>26</v>
       </c>
       <c r="I281" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -15118,7 +15115,7 @@
         <v>26</v>
       </c>
       <c r="I282" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -15147,7 +15144,7 @@
         <v>26</v>
       </c>
       <c r="I283" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -15176,7 +15173,7 @@
         <v>26</v>
       </c>
       <c r="I284" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -15205,7 +15202,7 @@
         <v>26</v>
       </c>
       <c r="I285" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -15234,7 +15231,7 @@
         <v>26</v>
       </c>
       <c r="I286" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -15263,7 +15260,7 @@
         <v>27</v>
       </c>
       <c r="I287" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -15292,7 +15289,7 @@
         <v>27</v>
       </c>
       <c r="I288" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -15321,7 +15318,7 @@
         <v>27</v>
       </c>
       <c r="I289" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -15350,7 +15347,7 @@
         <v>27</v>
       </c>
       <c r="I290" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -15379,7 +15376,7 @@
         <v>27</v>
       </c>
       <c r="I291" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -15408,7 +15405,7 @@
         <v>27</v>
       </c>
       <c r="I292" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -15437,7 +15434,7 @@
         <v>27</v>
       </c>
       <c r="I293" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -15466,7 +15463,7 @@
         <v>27</v>
       </c>
       <c r="I294" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -15495,7 +15492,7 @@
         <v>27</v>
       </c>
       <c r="I295" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -15524,7 +15521,7 @@
         <v>27</v>
       </c>
       <c r="I296" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -15553,7 +15550,7 @@
         <v>27</v>
       </c>
       <c r="I297" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -15582,7 +15579,7 @@
         <v>27</v>
       </c>
       <c r="I298" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -15611,7 +15608,7 @@
         <v>27</v>
       </c>
       <c r="I299" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -15640,7 +15637,7 @@
         <v>27</v>
       </c>
       <c r="I300" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -15669,7 +15666,7 @@
         <v>27</v>
       </c>
       <c r="I301" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -15698,7 +15695,7 @@
         <v>24</v>
       </c>
       <c r="I302" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -15727,7 +15724,7 @@
         <v>24</v>
       </c>
       <c r="I303" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -15756,7 +15753,7 @@
         <v>24</v>
       </c>
       <c r="I304" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -15764,7 +15761,7 @@
         <v>310</v>
       </c>
       <c r="B305" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C305" t="s">
         <v>1418</v>
@@ -15785,7 +15782,7 @@
         <v>24</v>
       </c>
       <c r="I305" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -15814,7 +15811,7 @@
         <v>24</v>
       </c>
       <c r="I306" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -15843,7 +15840,7 @@
         <v>24</v>
       </c>
       <c r="I307" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -15872,7 +15869,7 @@
         <v>24</v>
       </c>
       <c r="I308" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -15901,7 +15898,7 @@
         <v>24</v>
       </c>
       <c r="I309" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -15930,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="I310" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -15959,7 +15956,7 @@
         <v>1</v>
       </c>
       <c r="I311" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -15988,7 +15985,7 @@
         <v>1</v>
       </c>
       <c r="I312" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -16017,7 +16014,7 @@
         <v>1</v>
       </c>
       <c r="I313" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -16046,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="I314" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -16075,7 +16072,7 @@
         <v>1</v>
       </c>
       <c r="I315" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -16104,7 +16101,7 @@
         <v>1</v>
       </c>
       <c r="I316" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -16133,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="I317" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -16162,7 +16159,7 @@
         <v>1</v>
       </c>
       <c r="I318" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -16539,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="I331" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -16568,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -16597,7 +16594,7 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -16626,7 +16623,7 @@
         <v>28</v>
       </c>
       <c r="I334" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -16655,7 +16652,7 @@
         <v>28</v>
       </c>
       <c r="I335" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -16684,7 +16681,7 @@
         <v>28</v>
       </c>
       <c r="I336" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -16713,7 +16710,7 @@
         <v>28</v>
       </c>
       <c r="I337" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -16742,7 +16739,7 @@
         <v>28</v>
       </c>
       <c r="I338" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -16771,7 +16768,7 @@
         <v>28</v>
       </c>
       <c r="I339" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -16800,7 +16797,7 @@
         <v>28</v>
       </c>
       <c r="I340" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -16829,7 +16826,7 @@
         <v>28</v>
       </c>
       <c r="I341" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -16858,7 +16855,7 @@
         <v>28</v>
       </c>
       <c r="I342" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -16887,7 +16884,7 @@
         <v>28</v>
       </c>
       <c r="I343" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -16916,7 +16913,7 @@
         <v>28</v>
       </c>
       <c r="I344" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -16945,7 +16942,7 @@
         <v>64</v>
       </c>
       <c r="I345" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -16974,7 +16971,7 @@
         <v>64</v>
       </c>
       <c r="I346" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -17003,7 +17000,7 @@
         <v>64</v>
       </c>
       <c r="I347" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -17032,7 +17029,7 @@
         <v>64</v>
       </c>
       <c r="I348" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -17061,7 +17058,7 @@
         <v>64</v>
       </c>
       <c r="I349" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -17090,7 +17087,7 @@
         <v>64</v>
       </c>
       <c r="I350" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -17119,7 +17116,7 @@
         <v>64</v>
       </c>
       <c r="I351" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -17148,7 +17145,7 @@
         <v>64</v>
       </c>
       <c r="I352" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -17177,7 +17174,7 @@
         <v>64</v>
       </c>
       <c r="I353" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -17206,7 +17203,7 @@
         <v>64</v>
       </c>
       <c r="I354" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -17235,7 +17232,7 @@
         <v>30</v>
       </c>
       <c r="I355" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -17264,7 +17261,7 @@
         <v>30</v>
       </c>
       <c r="I356" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -17293,7 +17290,7 @@
         <v>30</v>
       </c>
       <c r="I357" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -17322,7 +17319,7 @@
         <v>30</v>
       </c>
       <c r="I358" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -17351,7 +17348,7 @@
         <v>30</v>
       </c>
       <c r="I359" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -17380,7 +17377,7 @@
         <v>30</v>
       </c>
       <c r="I360" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -17409,7 +17406,7 @@
         <v>30</v>
       </c>
       <c r="I361" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -17438,7 +17435,7 @@
         <v>30</v>
       </c>
       <c r="I362" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -17467,7 +17464,7 @@
         <v>56</v>
       </c>
       <c r="I363" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -17496,7 +17493,7 @@
         <v>56</v>
       </c>
       <c r="I364" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -17525,7 +17522,7 @@
         <v>56</v>
       </c>
       <c r="I365" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -17554,7 +17551,7 @@
         <v>56</v>
       </c>
       <c r="I366" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -17583,7 +17580,7 @@
         <v>56</v>
       </c>
       <c r="I367" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -17612,7 +17609,7 @@
         <v>56</v>
       </c>
       <c r="I368" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -17641,7 +17638,7 @@
         <v>56</v>
       </c>
       <c r="I369" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -17670,7 +17667,7 @@
         <v>56</v>
       </c>
       <c r="I370" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -17699,7 +17696,7 @@
         <v>56</v>
       </c>
       <c r="I371" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -17728,7 +17725,7 @@
         <v>56</v>
       </c>
       <c r="I372" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -17757,7 +17754,7 @@
         <v>56</v>
       </c>
       <c r="I373" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -17786,7 +17783,7 @@
         <v>56</v>
       </c>
       <c r="I374" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -17815,7 +17812,7 @@
         <v>56</v>
       </c>
       <c r="I375" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -17844,7 +17841,7 @@
         <v>56</v>
       </c>
       <c r="I376" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -17873,7 +17870,7 @@
         <v>56</v>
       </c>
       <c r="I377" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -17902,7 +17899,7 @@
         <v>65</v>
       </c>
       <c r="I378" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -17931,7 +17928,7 @@
         <v>65</v>
       </c>
       <c r="I379" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -17960,7 +17957,7 @@
         <v>65</v>
       </c>
       <c r="I380" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -17989,7 +17986,7 @@
         <v>65</v>
       </c>
       <c r="I381" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -18018,7 +18015,7 @@
         <v>65</v>
       </c>
       <c r="I382" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -18047,7 +18044,7 @@
         <v>65</v>
       </c>
       <c r="I383" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -18076,7 +18073,7 @@
         <v>65</v>
       </c>
       <c r="I384" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -18105,7 +18102,7 @@
         <v>65</v>
       </c>
       <c r="I385" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -18134,7 +18131,7 @@
         <v>65</v>
       </c>
       <c r="I386" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -18163,7 +18160,7 @@
         <v>65</v>
       </c>
       <c r="I387" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -18192,7 +18189,7 @@
         <v>32</v>
       </c>
       <c r="I388" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -18221,7 +18218,7 @@
         <v>32</v>
       </c>
       <c r="I389" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -18250,7 +18247,7 @@
         <v>32</v>
       </c>
       <c r="I390" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -18279,7 +18276,7 @@
         <v>32</v>
       </c>
       <c r="I391" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -18308,7 +18305,7 @@
         <v>32</v>
       </c>
       <c r="I392" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -18337,7 +18334,7 @@
         <v>32</v>
       </c>
       <c r="I393" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -18366,7 +18363,7 @@
         <v>32</v>
       </c>
       <c r="I394" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -18395,7 +18392,7 @@
         <v>32</v>
       </c>
       <c r="I395" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -18424,7 +18421,7 @@
         <v>33</v>
       </c>
       <c r="I396" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -18453,7 +18450,7 @@
         <v>33</v>
       </c>
       <c r="I397" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -18482,7 +18479,7 @@
         <v>33</v>
       </c>
       <c r="I398" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -18511,7 +18508,7 @@
         <v>33</v>
       </c>
       <c r="I399" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -18540,7 +18537,7 @@
         <v>33</v>
       </c>
       <c r="I400" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -18569,7 +18566,7 @@
         <v>33</v>
       </c>
       <c r="I401" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -18598,7 +18595,7 @@
         <v>33</v>
       </c>
       <c r="I402" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -18627,7 +18624,7 @@
         <v>33</v>
       </c>
       <c r="I403" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -18656,7 +18653,7 @@
         <v>33</v>
       </c>
       <c r="I404" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -18685,7 +18682,7 @@
         <v>33</v>
       </c>
       <c r="I405" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -18714,7 +18711,7 @@
         <v>33</v>
       </c>
       <c r="I406" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -18743,7 +18740,7 @@
         <v>33</v>
       </c>
       <c r="I407" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -18772,7 +18769,7 @@
         <v>34</v>
       </c>
       <c r="I408" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -18801,7 +18798,7 @@
         <v>34</v>
       </c>
       <c r="I409" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -18830,7 +18827,7 @@
         <v>34</v>
       </c>
       <c r="I410" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -18859,7 +18856,7 @@
         <v>34</v>
       </c>
       <c r="I411" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -18888,7 +18885,7 @@
         <v>34</v>
       </c>
       <c r="I412" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -18917,7 +18914,7 @@
         <v>34</v>
       </c>
       <c r="I413" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -18946,7 +18943,7 @@
         <v>34</v>
       </c>
       <c r="I414" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -18975,7 +18972,7 @@
         <v>34</v>
       </c>
       <c r="I415" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -19004,7 +19001,7 @@
         <v>34</v>
       </c>
       <c r="I416" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -19033,7 +19030,7 @@
         <v>34</v>
       </c>
       <c r="I417" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -19062,7 +19059,7 @@
         <v>34</v>
       </c>
       <c r="I418" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -19091,7 +19088,7 @@
         <v>35</v>
       </c>
       <c r="I419" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -19120,7 +19117,7 @@
         <v>35</v>
       </c>
       <c r="I420" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -19149,7 +19146,7 @@
         <v>35</v>
       </c>
       <c r="I421" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -19178,7 +19175,7 @@
         <v>35</v>
       </c>
       <c r="I422" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -19207,7 +19204,7 @@
         <v>35</v>
       </c>
       <c r="I423" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -19236,7 +19233,7 @@
         <v>35</v>
       </c>
       <c r="I424" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -19265,7 +19262,7 @@
         <v>35</v>
       </c>
       <c r="I425" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -19294,7 +19291,7 @@
         <v>35</v>
       </c>
       <c r="I426" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -19323,7 +19320,7 @@
         <v>35</v>
       </c>
       <c r="I427" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -19352,7 +19349,7 @@
         <v>36</v>
       </c>
       <c r="I428" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -19381,7 +19378,7 @@
         <v>36</v>
       </c>
       <c r="I429" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -19410,7 +19407,7 @@
         <v>36</v>
       </c>
       <c r="I430" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -19439,7 +19436,7 @@
         <v>36</v>
       </c>
       <c r="I431" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -19468,7 +19465,7 @@
         <v>36</v>
       </c>
       <c r="I432" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -19497,7 +19494,7 @@
         <v>36</v>
       </c>
       <c r="I433" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -19526,7 +19523,7 @@
         <v>36</v>
       </c>
       <c r="I434" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -19555,7 +19552,7 @@
         <v>36</v>
       </c>
       <c r="I435" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -19584,7 +19581,7 @@
         <v>36</v>
       </c>
       <c r="I436" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -19613,7 +19610,7 @@
         <v>36</v>
       </c>
       <c r="I437" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -19642,7 +19639,7 @@
         <v>36</v>
       </c>
       <c r="I438" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
@@ -19671,7 +19668,7 @@
         <v>36</v>
       </c>
       <c r="I439" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -19700,7 +19697,7 @@
         <v>36</v>
       </c>
       <c r="I440" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -19729,7 +19726,7 @@
         <v>36</v>
       </c>
       <c r="I441" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -19758,7 +19755,7 @@
         <v>36</v>
       </c>
       <c r="I442" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
@@ -19787,7 +19784,7 @@
         <v>37</v>
       </c>
       <c r="I443" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
@@ -19816,7 +19813,7 @@
         <v>37</v>
       </c>
       <c r="I444" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -19845,7 +19842,7 @@
         <v>37</v>
       </c>
       <c r="I445" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -19874,7 +19871,7 @@
         <v>37</v>
       </c>
       <c r="I446" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -19903,7 +19900,7 @@
         <v>37</v>
       </c>
       <c r="I447" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -19932,7 +19929,7 @@
         <v>37</v>
       </c>
       <c r="I448" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -19961,7 +19958,7 @@
         <v>37</v>
       </c>
       <c r="I449" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -19990,7 +19987,7 @@
         <v>37</v>
       </c>
       <c r="I450" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -20019,7 +20016,7 @@
         <v>37</v>
       </c>
       <c r="I451" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -20048,7 +20045,7 @@
         <v>37</v>
       </c>
       <c r="I452" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -20077,7 +20074,7 @@
         <v>38</v>
       </c>
       <c r="I453" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -20106,7 +20103,7 @@
         <v>38</v>
       </c>
       <c r="I454" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -20135,7 +20132,7 @@
         <v>38</v>
       </c>
       <c r="I455" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -20164,7 +20161,7 @@
         <v>38</v>
       </c>
       <c r="I456" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -20193,7 +20190,7 @@
         <v>38</v>
       </c>
       <c r="I457" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -20222,7 +20219,7 @@
         <v>38</v>
       </c>
       <c r="I458" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
@@ -20251,7 +20248,7 @@
         <v>38</v>
       </c>
       <c r="I459" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -20280,7 +20277,7 @@
         <v>38</v>
       </c>
       <c r="I460" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
@@ -20309,7 +20306,7 @@
         <v>38</v>
       </c>
       <c r="I461" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -20338,7 +20335,7 @@
         <v>38</v>
       </c>
       <c r="I462" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -20367,7 +20364,7 @@
         <v>38</v>
       </c>
       <c r="I463" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -20396,7 +20393,7 @@
         <v>38</v>
       </c>
       <c r="I464" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -20425,7 +20422,7 @@
         <v>38</v>
       </c>
       <c r="I465" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -20454,7 +20451,7 @@
         <v>38</v>
       </c>
       <c r="I466" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -20483,7 +20480,7 @@
         <v>38</v>
       </c>
       <c r="I467" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
@@ -20512,7 +20509,7 @@
         <v>38</v>
       </c>
       <c r="I468" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -20541,7 +20538,7 @@
         <v>38</v>
       </c>
       <c r="I469" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -20570,7 +20567,7 @@
         <v>38</v>
       </c>
       <c r="I470" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -20599,7 +20596,7 @@
         <v>38</v>
       </c>
       <c r="I471" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -20628,7 +20625,7 @@
         <v>38</v>
       </c>
       <c r="I472" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -20657,7 +20654,7 @@
         <v>38</v>
       </c>
       <c r="I473" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -20686,7 +20683,7 @@
         <v>66</v>
       </c>
       <c r="I474" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
@@ -20715,7 +20712,7 @@
         <v>66</v>
       </c>
       <c r="I475" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
@@ -20744,7 +20741,7 @@
         <v>66</v>
       </c>
       <c r="I476" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -20773,7 +20770,7 @@
         <v>66</v>
       </c>
       <c r="I477" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -20802,7 +20799,7 @@
         <v>66</v>
       </c>
       <c r="I478" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
@@ -20831,7 +20828,7 @@
         <v>66</v>
       </c>
       <c r="I479" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -20860,7 +20857,7 @@
         <v>66</v>
       </c>
       <c r="I480" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -20889,7 +20886,7 @@
         <v>66</v>
       </c>
       <c r="I481" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -20897,7 +20894,7 @@
         <v>487</v>
       </c>
       <c r="B482" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C482" t="s">
         <v>1433</v>
@@ -20918,7 +20915,7 @@
         <v>39</v>
       </c>
       <c r="I482" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -20947,7 +20944,7 @@
         <v>39</v>
       </c>
       <c r="I483" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -20976,7 +20973,7 @@
         <v>39</v>
       </c>
       <c r="I484" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -21005,7 +21002,7 @@
         <v>39</v>
       </c>
       <c r="I485" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -21034,7 +21031,7 @@
         <v>39</v>
       </c>
       <c r="I486" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -21063,7 +21060,7 @@
         <v>39</v>
       </c>
       <c r="I487" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -21092,7 +21089,7 @@
         <v>39</v>
       </c>
       <c r="I488" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -21121,7 +21118,7 @@
         <v>40</v>
       </c>
       <c r="I489" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -21150,7 +21147,7 @@
         <v>40</v>
       </c>
       <c r="I490" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -21179,7 +21176,7 @@
         <v>40</v>
       </c>
       <c r="I491" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -21208,7 +21205,7 @@
         <v>40</v>
       </c>
       <c r="I492" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
@@ -21237,7 +21234,7 @@
         <v>40</v>
       </c>
       <c r="I493" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -21266,7 +21263,7 @@
         <v>40</v>
       </c>
       <c r="I494" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -21295,7 +21292,7 @@
         <v>40</v>
       </c>
       <c r="I495" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -21324,7 +21321,7 @@
         <v>40</v>
       </c>
       <c r="I496" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -21353,7 +21350,7 @@
         <v>40</v>
       </c>
       <c r="I497" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -21382,7 +21379,7 @@
         <v>40</v>
       </c>
       <c r="I498" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -21411,7 +21408,7 @@
         <v>40</v>
       </c>
       <c r="I499" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -21440,7 +21437,7 @@
         <v>40</v>
       </c>
       <c r="I500" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -21469,7 +21466,7 @@
         <v>40</v>
       </c>
       <c r="I501" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -21498,7 +21495,7 @@
         <v>41</v>
       </c>
       <c r="I502" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
@@ -21527,7 +21524,7 @@
         <v>41</v>
       </c>
       <c r="I503" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -21556,7 +21553,7 @@
         <v>41</v>
       </c>
       <c r="I504" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -21585,7 +21582,7 @@
         <v>41</v>
       </c>
       <c r="I505" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
@@ -21614,7 +21611,7 @@
         <v>41</v>
       </c>
       <c r="I506" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -21643,7 +21640,7 @@
         <v>41</v>
       </c>
       <c r="I507" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -21672,7 +21669,7 @@
         <v>41</v>
       </c>
       <c r="I508" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -21701,7 +21698,7 @@
         <v>41</v>
       </c>
       <c r="I509" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
@@ -21730,7 +21727,7 @@
         <v>41</v>
       </c>
       <c r="I510" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -21759,7 +21756,7 @@
         <v>42</v>
       </c>
       <c r="I511" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -21788,7 +21785,7 @@
         <v>42</v>
       </c>
       <c r="I512" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
@@ -21817,7 +21814,7 @@
         <v>42</v>
       </c>
       <c r="I513" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
@@ -21846,7 +21843,7 @@
         <v>42</v>
       </c>
       <c r="I514" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
@@ -21875,7 +21872,7 @@
         <v>42</v>
       </c>
       <c r="I515" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -21904,7 +21901,7 @@
         <v>42</v>
       </c>
       <c r="I516" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -21933,7 +21930,7 @@
         <v>42</v>
       </c>
       <c r="I517" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -21962,7 +21959,7 @@
         <v>42</v>
       </c>
       <c r="I518" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -21991,7 +21988,7 @@
         <v>43</v>
       </c>
       <c r="I519" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -22020,7 +22017,7 @@
         <v>43</v>
       </c>
       <c r="I520" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
@@ -22049,7 +22046,7 @@
         <v>43</v>
       </c>
       <c r="I521" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
@@ -22078,7 +22075,7 @@
         <v>43</v>
       </c>
       <c r="I522" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -22107,7 +22104,7 @@
         <v>43</v>
       </c>
       <c r="I523" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
@@ -22136,7 +22133,7 @@
         <v>43</v>
       </c>
       <c r="I524" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -22165,7 +22162,7 @@
         <v>43</v>
       </c>
       <c r="I525" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
@@ -22194,7 +22191,7 @@
         <v>43</v>
       </c>
       <c r="I526" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
@@ -22223,7 +22220,7 @@
         <v>43</v>
       </c>
       <c r="I527" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
@@ -22252,7 +22249,7 @@
         <v>43</v>
       </c>
       <c r="I528" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
@@ -22281,7 +22278,7 @@
         <v>43</v>
       </c>
       <c r="I529" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
@@ -22310,7 +22307,7 @@
         <v>43</v>
       </c>
       <c r="I530" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
@@ -22339,7 +22336,7 @@
         <v>43</v>
       </c>
       <c r="I531" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
@@ -22368,7 +22365,7 @@
         <v>43</v>
       </c>
       <c r="I532" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
@@ -22397,7 +22394,7 @@
         <v>43</v>
       </c>
       <c r="I533" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
@@ -22426,7 +22423,7 @@
         <v>43</v>
       </c>
       <c r="I534" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
@@ -22455,7 +22452,7 @@
         <v>43</v>
       </c>
       <c r="I535" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
@@ -22484,7 +22481,7 @@
         <v>43</v>
       </c>
       <c r="I536" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
@@ -22513,7 +22510,7 @@
         <v>44</v>
       </c>
       <c r="I537" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
@@ -22542,7 +22539,7 @@
         <v>44</v>
       </c>
       <c r="I538" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
@@ -22571,7 +22568,7 @@
         <v>44</v>
       </c>
       <c r="I539" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
@@ -22600,7 +22597,7 @@
         <v>44</v>
       </c>
       <c r="I540" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
@@ -22629,7 +22626,7 @@
         <v>44</v>
       </c>
       <c r="I541" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
@@ -22658,7 +22655,7 @@
         <v>44</v>
       </c>
       <c r="I542" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
@@ -22687,7 +22684,7 @@
         <v>44</v>
       </c>
       <c r="I543" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
@@ -22716,7 +22713,7 @@
         <v>44</v>
       </c>
       <c r="I544" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
@@ -22745,7 +22742,7 @@
         <v>44</v>
       </c>
       <c r="I545" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
@@ -22774,7 +22771,7 @@
         <v>44</v>
       </c>
       <c r="I546" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
@@ -22803,7 +22800,7 @@
         <v>44</v>
       </c>
       <c r="I547" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
@@ -22832,7 +22829,7 @@
         <v>44</v>
       </c>
       <c r="I548" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
@@ -22861,7 +22858,7 @@
         <v>44</v>
       </c>
       <c r="I549" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -22890,7 +22887,7 @@
         <v>44</v>
       </c>
       <c r="I550" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
@@ -22919,7 +22916,7 @@
         <v>45</v>
       </c>
       <c r="I551" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
@@ -22948,7 +22945,7 @@
         <v>45</v>
       </c>
       <c r="I552" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
@@ -22977,7 +22974,7 @@
         <v>45</v>
       </c>
       <c r="I553" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
@@ -23006,7 +23003,7 @@
         <v>45</v>
       </c>
       <c r="I554" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
@@ -23035,7 +23032,7 @@
         <v>45</v>
       </c>
       <c r="I555" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
@@ -23064,7 +23061,7 @@
         <v>45</v>
       </c>
       <c r="I556" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
@@ -23093,7 +23090,7 @@
         <v>45</v>
       </c>
       <c r="I557" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
@@ -23122,7 +23119,7 @@
         <v>45</v>
       </c>
       <c r="I558" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
@@ -23151,7 +23148,7 @@
         <v>45</v>
       </c>
       <c r="I559" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
@@ -23180,7 +23177,7 @@
         <v>45</v>
       </c>
       <c r="I560" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
@@ -23209,7 +23206,7 @@
         <v>45</v>
       </c>
       <c r="I561" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
@@ -23238,7 +23235,7 @@
         <v>45</v>
       </c>
       <c r="I562" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
@@ -23267,7 +23264,7 @@
         <v>45</v>
       </c>
       <c r="I563" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
@@ -23296,7 +23293,7 @@
         <v>45</v>
       </c>
       <c r="I564" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
@@ -23325,7 +23322,7 @@
         <v>46</v>
       </c>
       <c r="I565" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
@@ -23354,7 +23351,7 @@
         <v>46</v>
       </c>
       <c r="I566" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
@@ -23383,7 +23380,7 @@
         <v>46</v>
       </c>
       <c r="I567" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
@@ -23412,7 +23409,7 @@
         <v>46</v>
       </c>
       <c r="I568" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
@@ -23441,7 +23438,7 @@
         <v>46</v>
       </c>
       <c r="I569" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
@@ -23470,7 +23467,7 @@
         <v>46</v>
       </c>
       <c r="I570" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
@@ -23499,7 +23496,7 @@
         <v>46</v>
       </c>
       <c r="I571" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
@@ -23528,7 +23525,7 @@
         <v>46</v>
       </c>
       <c r="I572" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
@@ -23557,7 +23554,7 @@
         <v>46</v>
       </c>
       <c r="I573" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
@@ -23586,7 +23583,7 @@
         <v>46</v>
       </c>
       <c r="I574" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
@@ -23615,7 +23612,7 @@
         <v>47</v>
       </c>
       <c r="I575" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
@@ -23644,7 +23641,7 @@
         <v>47</v>
       </c>
       <c r="I576" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
@@ -23673,7 +23670,7 @@
         <v>47</v>
       </c>
       <c r="I577" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
@@ -23702,7 +23699,7 @@
         <v>47</v>
       </c>
       <c r="I578" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
@@ -23731,7 +23728,7 @@
         <v>47</v>
       </c>
       <c r="I579" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
@@ -23760,7 +23757,7 @@
         <v>47</v>
       </c>
       <c r="I580" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -23789,7 +23786,7 @@
         <v>47</v>
       </c>
       <c r="I581" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -23818,7 +23815,7 @@
         <v>47</v>
       </c>
       <c r="I582" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
@@ -23847,7 +23844,7 @@
         <v>47</v>
       </c>
       <c r="I583" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
@@ -23876,7 +23873,7 @@
         <v>47</v>
       </c>
       <c r="I584" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -23905,7 +23902,7 @@
         <v>47</v>
       </c>
       <c r="I585" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -23934,7 +23931,7 @@
         <v>67</v>
       </c>
       <c r="I586" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
@@ -23963,7 +23960,7 @@
         <v>67</v>
       </c>
       <c r="I587" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
@@ -23992,7 +23989,7 @@
         <v>67</v>
       </c>
       <c r="I588" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -24021,7 +24018,7 @@
         <v>67</v>
       </c>
       <c r="I589" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
@@ -24050,7 +24047,7 @@
         <v>67</v>
       </c>
       <c r="I590" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
@@ -24079,7 +24076,7 @@
         <v>67</v>
       </c>
       <c r="I591" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -24108,7 +24105,7 @@
         <v>67</v>
       </c>
       <c r="I592" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
@@ -24137,7 +24134,7 @@
         <v>67</v>
       </c>
       <c r="I593" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
@@ -24166,7 +24163,7 @@
         <v>67</v>
       </c>
       <c r="I594" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
@@ -24195,7 +24192,7 @@
         <v>67</v>
       </c>
       <c r="I595" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
@@ -24224,7 +24221,7 @@
         <v>67</v>
       </c>
       <c r="I596" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
@@ -24253,7 +24250,7 @@
         <v>67</v>
       </c>
       <c r="I597" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
@@ -24282,7 +24279,7 @@
         <v>48</v>
       </c>
       <c r="I598" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
@@ -24311,7 +24308,7 @@
         <v>48</v>
       </c>
       <c r="I599" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
@@ -24340,7 +24337,7 @@
         <v>48</v>
       </c>
       <c r="I600" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
@@ -24369,7 +24366,7 @@
         <v>48</v>
       </c>
       <c r="I601" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
@@ -24398,7 +24395,7 @@
         <v>48</v>
       </c>
       <c r="I602" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
@@ -24427,7 +24424,7 @@
         <v>48</v>
       </c>
       <c r="I603" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
@@ -24456,7 +24453,7 @@
         <v>48</v>
       </c>
       <c r="I604" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
@@ -24485,7 +24482,7 @@
         <v>48</v>
       </c>
       <c r="I605" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
@@ -24514,7 +24511,7 @@
         <v>48</v>
       </c>
       <c r="I606" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
@@ -24543,7 +24540,7 @@
         <v>49</v>
       </c>
       <c r="I607" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
@@ -24572,7 +24569,7 @@
         <v>49</v>
       </c>
       <c r="I608" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
@@ -24601,7 +24598,7 @@
         <v>49</v>
       </c>
       <c r="I609" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
@@ -24630,7 +24627,7 @@
         <v>49</v>
       </c>
       <c r="I610" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
@@ -24659,7 +24656,7 @@
         <v>49</v>
       </c>
       <c r="I611" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
@@ -24688,7 +24685,7 @@
         <v>49</v>
       </c>
       <c r="I612" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
@@ -24717,7 +24714,7 @@
         <v>49</v>
       </c>
       <c r="I613" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -24746,7 +24743,7 @@
         <v>49</v>
       </c>
       <c r="I614" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -24775,7 +24772,7 @@
         <v>50</v>
       </c>
       <c r="I615" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
@@ -24804,7 +24801,7 @@
         <v>50</v>
       </c>
       <c r="I616" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
@@ -24833,7 +24830,7 @@
         <v>50</v>
       </c>
       <c r="I617" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
@@ -24862,7 +24859,7 @@
         <v>50</v>
       </c>
       <c r="I618" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
@@ -24891,7 +24888,7 @@
         <v>50</v>
       </c>
       <c r="I619" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -24920,7 +24917,7 @@
         <v>50</v>
       </c>
       <c r="I620" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -24949,7 +24946,7 @@
         <v>50</v>
       </c>
       <c r="I621" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -24978,7 +24975,7 @@
         <v>50</v>
       </c>
       <c r="I622" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
@@ -25007,7 +25004,7 @@
         <v>50</v>
       </c>
       <c r="I623" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
@@ -25036,7 +25033,7 @@
         <v>51</v>
       </c>
       <c r="I624" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
@@ -25065,7 +25062,7 @@
         <v>51</v>
       </c>
       <c r="I625" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
@@ -25094,7 +25091,7 @@
         <v>51</v>
       </c>
       <c r="I626" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -25123,7 +25120,7 @@
         <v>51</v>
       </c>
       <c r="I627" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -25152,7 +25149,7 @@
         <v>51</v>
       </c>
       <c r="I628" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
@@ -25181,7 +25178,7 @@
         <v>51</v>
       </c>
       <c r="I629" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -25210,7 +25207,7 @@
         <v>51</v>
       </c>
       <c r="I630" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -25239,7 +25236,7 @@
         <v>51</v>
       </c>
       <c r="I631" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
@@ -25268,7 +25265,7 @@
         <v>51</v>
       </c>
       <c r="I632" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
@@ -25297,7 +25294,7 @@
         <v>51</v>
       </c>
       <c r="I633" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
@@ -25326,7 +25323,7 @@
         <v>51</v>
       </c>
       <c r="I634" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
@@ -25355,7 +25352,7 @@
         <v>51</v>
       </c>
       <c r="I635" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
@@ -25384,7 +25381,7 @@
         <v>51</v>
       </c>
       <c r="I636" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
@@ -25413,7 +25410,7 @@
         <v>51</v>
       </c>
       <c r="I637" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
@@ -25442,7 +25439,7 @@
         <v>51</v>
       </c>
       <c r="I638" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
@@ -25471,7 +25468,7 @@
         <v>51</v>
       </c>
       <c r="I639" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -25500,7 +25497,7 @@
         <v>51</v>
       </c>
       <c r="I640" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
@@ -25529,7 +25526,7 @@
         <v>51</v>
       </c>
       <c r="I641" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
@@ -25558,7 +25555,7 @@
         <v>51</v>
       </c>
       <c r="I642" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
@@ -25587,7 +25584,7 @@
         <v>51</v>
       </c>
       <c r="I643" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -25616,7 +25613,7 @@
         <v>51</v>
       </c>
       <c r="I644" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
@@ -25645,7 +25642,7 @@
         <v>51</v>
       </c>
       <c r="I645" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.25">
@@ -25674,7 +25671,7 @@
         <v>51</v>
       </c>
       <c r="I646" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
@@ -25682,7 +25679,7 @@
         <v>652</v>
       </c>
       <c r="B647" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C647" t="s">
         <v>1446</v>
@@ -25703,7 +25700,7 @@
         <v>51</v>
       </c>
       <c r="I647" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.25">
@@ -25732,7 +25729,7 @@
         <v>51</v>
       </c>
       <c r="I648" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.25">
@@ -25761,7 +25758,7 @@
         <v>51</v>
       </c>
       <c r="I649" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.25">
@@ -25790,7 +25787,7 @@
         <v>51</v>
       </c>
       <c r="I650" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.25">
@@ -25819,7 +25816,7 @@
         <v>52</v>
       </c>
       <c r="I651" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
@@ -25848,7 +25845,7 @@
         <v>52</v>
       </c>
       <c r="I652" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.25">
@@ -25877,7 +25874,7 @@
         <v>52</v>
       </c>
       <c r="I653" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.25">
@@ -25906,7 +25903,7 @@
         <v>52</v>
       </c>
       <c r="I654" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
@@ -25935,7 +25932,7 @@
         <v>52</v>
       </c>
       <c r="I655" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
@@ -25964,7 +25961,7 @@
         <v>52</v>
       </c>
       <c r="I656" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
@@ -25993,7 +25990,7 @@
         <v>52</v>
       </c>
       <c r="I657" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.25">
@@ -26022,7 +26019,7 @@
         <v>52</v>
       </c>
       <c r="I658" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.25">
@@ -26051,7 +26048,7 @@
         <v>52</v>
       </c>
       <c r="I659" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.25">
@@ -26080,7 +26077,7 @@
         <v>53</v>
       </c>
       <c r="I660" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.25">
@@ -26109,7 +26106,7 @@
         <v>53</v>
       </c>
       <c r="I661" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.25">
@@ -26117,7 +26114,7 @@
         <v>667</v>
       </c>
       <c r="B662" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C662" t="s">
         <v>1448</v>
@@ -26138,7 +26135,7 @@
         <v>53</v>
       </c>
       <c r="I662" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.25">
@@ -26167,7 +26164,7 @@
         <v>53</v>
       </c>
       <c r="I663" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.25">
@@ -26196,7 +26193,7 @@
         <v>53</v>
       </c>
       <c r="I664" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.25">
@@ -26225,7 +26222,7 @@
         <v>53</v>
       </c>
       <c r="I665" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.25">
@@ -26254,7 +26251,7 @@
         <v>53</v>
       </c>
       <c r="I666" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.25">
@@ -26283,7 +26280,7 @@
         <v>53</v>
       </c>
       <c r="I667" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.25">
@@ -26312,7 +26309,7 @@
         <v>53</v>
       </c>
       <c r="I668" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.25">
@@ -26341,7 +26338,7 @@
         <v>53</v>
       </c>
       <c r="I669" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.25">
@@ -26370,7 +26367,7 @@
         <v>53</v>
       </c>
       <c r="I670" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.25">
@@ -26384,7 +26381,7 @@
         <v>1449</v>
       </c>
       <c r="D671" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E671">
         <v>9.9699120211045749</v>
@@ -26399,7 +26396,7 @@
         <v>54</v>
       </c>
       <c r="I671" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.25">
@@ -26413,7 +26410,7 @@
         <v>1449</v>
       </c>
       <c r="D672" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E672">
         <v>9.8673522266432396</v>
@@ -26428,7 +26425,7 @@
         <v>54</v>
       </c>
       <c r="I672" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.25">
@@ -26442,7 +26439,7 @@
         <v>1449</v>
       </c>
       <c r="D673" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E673">
         <v>9.7804141071195065</v>
@@ -26457,7 +26454,7 @@
         <v>54</v>
       </c>
       <c r="I673" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.25">
@@ -26471,7 +26468,7 @@
         <v>1449</v>
       </c>
       <c r="D674" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E674">
         <v>9.8742829011893534</v>
@@ -26486,7 +26483,7 @@
         <v>54</v>
       </c>
       <c r="I674" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.25">
@@ -26500,7 +26497,7 @@
         <v>1449</v>
       </c>
       <c r="D675" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E675">
         <v>9.6121681579841667</v>
@@ -26515,7 +26512,7 @@
         <v>54</v>
       </c>
       <c r="I675" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
@@ -26523,13 +26520,13 @@
         <v>681</v>
       </c>
       <c r="B676" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C676" t="s">
         <v>1449</v>
       </c>
       <c r="D676" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E676">
         <v>9.6586516037179653</v>
@@ -26544,7 +26541,7 @@
         <v>54</v>
       </c>
       <c r="I676" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.25">
@@ -26558,7 +26555,7 @@
         <v>1449</v>
       </c>
       <c r="D677" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E677">
         <v>9.8039170694789615</v>
@@ -26573,7 +26570,7 @@
         <v>54</v>
       </c>
       <c r="I677" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.25">
@@ -26587,7 +26584,7 @@
         <v>1449</v>
       </c>
       <c r="D678" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E678">
         <v>9.7024778435011054</v>
@@ -26602,7 +26599,7 @@
         <v>54</v>
       </c>
       <c r="I678" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.25">
@@ -26616,7 +26613,7 @@
         <v>1449</v>
       </c>
       <c r="D679" t="s">
-        <v>1484</v>
+        <v>1358</v>
       </c>
       <c r="E679">
         <v>9.9543715865324227</v>
@@ -26631,7 +26628,7 @@
         <v>54</v>
       </c>
       <c r="I679" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.25">
@@ -26660,7 +26657,7 @@
         <v>55</v>
       </c>
       <c r="I680" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.25">
@@ -26689,7 +26686,7 @@
         <v>55</v>
       </c>
       <c r="I681" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.25">
@@ -26718,7 +26715,7 @@
         <v>55</v>
       </c>
       <c r="I682" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.25">
@@ -26747,7 +26744,7 @@
         <v>55</v>
       </c>
       <c r="I683" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.25">
@@ -26776,7 +26773,7 @@
         <v>55</v>
       </c>
       <c r="I684" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.25">
@@ -26805,7 +26802,7 @@
         <v>55</v>
       </c>
       <c r="I685" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.25">
@@ -26834,7 +26831,7 @@
         <v>55</v>
       </c>
       <c r="I686" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.25">
@@ -26863,7 +26860,7 @@
         <v>60</v>
       </c>
       <c r="I687" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.25">
@@ -26892,7 +26889,7 @@
         <v>60</v>
       </c>
       <c r="I688" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.25">
@@ -26921,7 +26918,7 @@
         <v>60</v>
       </c>
       <c r="I689" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.25">
@@ -26950,7 +26947,7 @@
         <v>60</v>
       </c>
       <c r="I690" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.25">
@@ -26979,7 +26976,7 @@
         <v>60</v>
       </c>
       <c r="I691" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.25">
@@ -27008,7 +27005,7 @@
         <v>60</v>
       </c>
       <c r="I692" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.25">
@@ -27037,7 +27034,7 @@
         <v>60</v>
       </c>
       <c r="I693" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.25">
@@ -27066,7 +27063,7 @@
         <v>60</v>
       </c>
       <c r="I694" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.25">
@@ -27080,7 +27077,7 @@
         <v>1452</v>
       </c>
       <c r="D695" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E695">
         <v>21.319562771662898</v>
@@ -27095,7 +27092,7 @@
         <v>57</v>
       </c>
       <c r="I695" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.25">
@@ -27109,7 +27106,7 @@
         <v>1452</v>
       </c>
       <c r="D696" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E696">
         <v>21.42188451093104</v>
@@ -27124,7 +27121,7 @@
         <v>57</v>
       </c>
       <c r="I696" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.25">
@@ -27138,7 +27135,7 @@
         <v>1452</v>
       </c>
       <c r="D697" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E697">
         <v>21.322407543832611</v>
@@ -27153,7 +27150,7 @@
         <v>57</v>
       </c>
       <c r="I697" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.25">
@@ -27167,7 +27164,7 @@
         <v>1452</v>
       </c>
       <c r="D698" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E698">
         <v>21.439294878333431</v>
@@ -27182,7 +27179,7 @@
         <v>57</v>
       </c>
       <c r="I698" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.25">
@@ -27196,7 +27193,7 @@
         <v>1452</v>
       </c>
       <c r="D699" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E699">
         <v>21.460991707405309</v>
@@ -27211,7 +27208,7 @@
         <v>57</v>
       </c>
       <c r="I699" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
@@ -27225,7 +27222,7 @@
         <v>1452</v>
       </c>
       <c r="D700" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E700">
         <v>21.365333304016321</v>
@@ -27240,7 +27237,7 @@
         <v>57</v>
       </c>
       <c r="I700" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.25">
@@ -27254,7 +27251,7 @@
         <v>1452</v>
       </c>
       <c r="D701" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E701">
         <v>21.242377267212021</v>
@@ -27269,7 +27266,7 @@
         <v>57</v>
       </c>
       <c r="I701" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.25">
@@ -27283,7 +27280,7 @@
         <v>1452</v>
       </c>
       <c r="D702" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E702">
         <v>21.305783569607911</v>
@@ -27298,7 +27295,7 @@
         <v>57</v>
       </c>
       <c r="I702" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.25">
@@ -27312,7 +27309,7 @@
         <v>1452</v>
       </c>
       <c r="D703" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E703">
         <v>21.22038254857701</v>
@@ -27327,7 +27324,7 @@
         <v>57</v>
       </c>
       <c r="I703" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.25">
@@ -27356,7 +27353,7 @@
         <v>59</v>
       </c>
       <c r="I704" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.25">
@@ -27385,7 +27382,7 @@
         <v>59</v>
       </c>
       <c r="I705" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.25">
@@ -27414,7 +27411,7 @@
         <v>59</v>
       </c>
       <c r="I706" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.25">
@@ -27443,7 +27440,7 @@
         <v>59</v>
       </c>
       <c r="I707" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.25">
@@ -27472,7 +27469,7 @@
         <v>59</v>
       </c>
       <c r="I708" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.25">
@@ -27501,7 +27498,7 @@
         <v>59</v>
       </c>
       <c r="I709" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.25">
@@ -27530,7 +27527,7 @@
         <v>59</v>
       </c>
       <c r="I710" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.25">
@@ -27559,7 +27556,7 @@
         <v>59</v>
       </c>
       <c r="I711" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.25">
@@ -27588,7 +27585,7 @@
         <v>59</v>
       </c>
       <c r="I712" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
   </sheetData>
